--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_224.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_224.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32729-d78310-Reviews-DoubleTree_by_Hilton_Hotel_Monrovia_Pasadena_Area-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>926</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-Monrovia-Pasadena-Area.h6955.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_224.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_224.xlsx
@@ -12035,7 +12035,7 @@
         <v>16259</v>
       </c>
       <c r="B3" t="n">
-        <v>141182</v>
+        <v>172354</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -12110,7 +12110,7 @@
         <v>16259</v>
       </c>
       <c r="B4" t="n">
-        <v>141183</v>
+        <v>172355</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -12185,7 +12185,7 @@
         <v>16259</v>
       </c>
       <c r="B5" t="n">
-        <v>141184</v>
+        <v>172356</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -12260,7 +12260,7 @@
         <v>16259</v>
       </c>
       <c r="B6" t="n">
-        <v>141185</v>
+        <v>172357</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -12335,7 +12335,7 @@
         <v>16259</v>
       </c>
       <c r="B7" t="n">
-        <v>141186</v>
+        <v>172358</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -12485,7 +12485,7 @@
         <v>16259</v>
       </c>
       <c r="B9" t="n">
-        <v>141187</v>
+        <v>172359</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -12696,7 +12696,7 @@
         <v>16259</v>
       </c>
       <c r="B12" t="n">
-        <v>141188</v>
+        <v>172360</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -12767,7 +12767,7 @@
         <v>16259</v>
       </c>
       <c r="B13" t="n">
-        <v>141189</v>
+        <v>172361</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
@@ -12828,7 +12828,7 @@
         <v>16259</v>
       </c>
       <c r="B14" t="n">
-        <v>141190</v>
+        <v>172362</v>
       </c>
       <c r="C14" t="s">
         <v>145</v>
@@ -12964,7 +12964,7 @@
         <v>16259</v>
       </c>
       <c r="B16" t="n">
-        <v>141191</v>
+        <v>172363</v>
       </c>
       <c r="C16" t="s">
         <v>161</v>
@@ -13090,7 +13090,7 @@
         <v>16259</v>
       </c>
       <c r="B18" t="n">
-        <v>141192</v>
+        <v>141212</v>
       </c>
       <c r="C18" t="s">
         <v>178</v>
@@ -13161,7 +13161,7 @@
         <v>16259</v>
       </c>
       <c r="B19" t="n">
-        <v>141193</v>
+        <v>172364</v>
       </c>
       <c r="C19" t="s">
         <v>185</v>
@@ -13222,7 +13222,7 @@
         <v>16259</v>
       </c>
       <c r="B20" t="n">
-        <v>141194</v>
+        <v>172365</v>
       </c>
       <c r="C20" t="s">
         <v>191</v>
@@ -13291,7 +13291,7 @@
         <v>16259</v>
       </c>
       <c r="B21" t="n">
-        <v>141195</v>
+        <v>172366</v>
       </c>
       <c r="C21" t="s">
         <v>201</v>
@@ -13433,7 +13433,7 @@
         <v>16259</v>
       </c>
       <c r="B23" t="n">
-        <v>141196</v>
+        <v>172367</v>
       </c>
       <c r="C23" t="s">
         <v>214</v>
@@ -13508,7 +13508,7 @@
         <v>16259</v>
       </c>
       <c r="B24" t="n">
-        <v>141197</v>
+        <v>172368</v>
       </c>
       <c r="C24" t="s">
         <v>223</v>
@@ -13583,7 +13583,7 @@
         <v>16259</v>
       </c>
       <c r="B25" t="n">
-        <v>141198</v>
+        <v>172369</v>
       </c>
       <c r="C25" t="s">
         <v>232</v>
@@ -13658,7 +13658,7 @@
         <v>16259</v>
       </c>
       <c r="B26" t="n">
-        <v>141199</v>
+        <v>172370</v>
       </c>
       <c r="C26" t="s">
         <v>239</v>
@@ -13798,7 +13798,7 @@
         <v>16259</v>
       </c>
       <c r="B28" t="n">
-        <v>141200</v>
+        <v>172371</v>
       </c>
       <c r="C28" t="s">
         <v>255</v>
@@ -13873,7 +13873,7 @@
         <v>16259</v>
       </c>
       <c r="B29" t="n">
-        <v>141201</v>
+        <v>172372</v>
       </c>
       <c r="C29" t="s">
         <v>264</v>
@@ -13934,7 +13934,7 @@
         <v>16259</v>
       </c>
       <c r="B30" t="n">
-        <v>141202</v>
+        <v>172373</v>
       </c>
       <c r="C30" t="s">
         <v>271</v>
@@ -13991,7 +13991,7 @@
         <v>16259</v>
       </c>
       <c r="B31" t="n">
-        <v>141203</v>
+        <v>172374</v>
       </c>
       <c r="C31" t="s">
         <v>277</v>
@@ -14062,7 +14062,7 @@
         <v>16259</v>
       </c>
       <c r="B32" t="n">
-        <v>141204</v>
+        <v>172375</v>
       </c>
       <c r="C32" t="s">
         <v>282</v>
@@ -14137,7 +14137,7 @@
         <v>16259</v>
       </c>
       <c r="B33" t="n">
-        <v>141205</v>
+        <v>172376</v>
       </c>
       <c r="C33" t="s">
         <v>292</v>
@@ -14269,7 +14269,7 @@
         <v>16259</v>
       </c>
       <c r="B35" t="n">
-        <v>141207</v>
+        <v>172377</v>
       </c>
       <c r="C35" t="s">
         <v>305</v>
@@ -14340,7 +14340,7 @@
         <v>16259</v>
       </c>
       <c r="B36" t="n">
-        <v>141208</v>
+        <v>172378</v>
       </c>
       <c r="C36" t="s">
         <v>311</v>
@@ -14411,7 +14411,7 @@
         <v>16259</v>
       </c>
       <c r="B37" t="n">
-        <v>141209</v>
+        <v>172379</v>
       </c>
       <c r="C37" t="s">
         <v>317</v>
@@ -14482,7 +14482,7 @@
         <v>16259</v>
       </c>
       <c r="B38" t="n">
-        <v>141210</v>
+        <v>172380</v>
       </c>
       <c r="C38" t="s">
         <v>321</v>
@@ -14614,7 +14614,7 @@
         <v>16259</v>
       </c>
       <c r="B40" t="n">
-        <v>141211</v>
+        <v>172381</v>
       </c>
       <c r="C40" t="s">
         <v>336</v>
@@ -14689,7 +14689,7 @@
         <v>16259</v>
       </c>
       <c r="B41" t="n">
-        <v>141212</v>
+        <v>172382</v>
       </c>
       <c r="C41" t="s">
         <v>345</v>
@@ -14831,7 +14831,7 @@
         <v>16259</v>
       </c>
       <c r="B43" t="n">
-        <v>141213</v>
+        <v>141203</v>
       </c>
       <c r="C43" t="s">
         <v>356</v>
@@ -14892,7 +14892,7 @@
         <v>16259</v>
       </c>
       <c r="B44" t="n">
-        <v>141214</v>
+        <v>172383</v>
       </c>
       <c r="C44" t="s">
         <v>363</v>
@@ -14963,7 +14963,7 @@
         <v>16259</v>
       </c>
       <c r="B45" t="n">
-        <v>141215</v>
+        <v>172384</v>
       </c>
       <c r="C45" t="s">
         <v>369</v>
@@ -15184,7 +15184,7 @@
         <v>16259</v>
       </c>
       <c r="B48" t="n">
-        <v>141216</v>
+        <v>172385</v>
       </c>
       <c r="C48" t="s">
         <v>393</v>
@@ -15326,7 +15326,7 @@
         <v>16259</v>
       </c>
       <c r="B50" t="n">
-        <v>141217</v>
+        <v>172386</v>
       </c>
       <c r="C50" t="s">
         <v>404</v>
@@ -15397,7 +15397,7 @@
         <v>16259</v>
       </c>
       <c r="B51" t="n">
-        <v>141218</v>
+        <v>172387</v>
       </c>
       <c r="C51" t="s">
         <v>410</v>
@@ -15472,7 +15472,7 @@
         <v>16259</v>
       </c>
       <c r="B52" t="n">
-        <v>141219</v>
+        <v>172388</v>
       </c>
       <c r="C52" t="s">
         <v>420</v>
@@ -15543,7 +15543,7 @@
         <v>16259</v>
       </c>
       <c r="B53" t="n">
-        <v>141220</v>
+        <v>172389</v>
       </c>
       <c r="C53" t="s">
         <v>425</v>
@@ -15614,7 +15614,7 @@
         <v>16259</v>
       </c>
       <c r="B54" t="n">
-        <v>141221</v>
+        <v>172390</v>
       </c>
       <c r="C54" t="s">
         <v>431</v>
@@ -15685,7 +15685,7 @@
         <v>16259</v>
       </c>
       <c r="B55" t="n">
-        <v>141222</v>
+        <v>172391</v>
       </c>
       <c r="C55" t="s">
         <v>437</v>
@@ -15756,7 +15756,7 @@
         <v>16259</v>
       </c>
       <c r="B56" t="n">
-        <v>141223</v>
+        <v>172392</v>
       </c>
       <c r="C56" t="s">
         <v>444</v>
@@ -15831,7 +15831,7 @@
         <v>16259</v>
       </c>
       <c r="B57" t="n">
-        <v>141224</v>
+        <v>172393</v>
       </c>
       <c r="C57" t="s">
         <v>453</v>
@@ -15902,7 +15902,7 @@
         <v>16259</v>
       </c>
       <c r="B58" t="n">
-        <v>141225</v>
+        <v>172394</v>
       </c>
       <c r="C58" t="s">
         <v>460</v>
@@ -15973,7 +15973,7 @@
         <v>16259</v>
       </c>
       <c r="B59" t="n">
-        <v>141226</v>
+        <v>172395</v>
       </c>
       <c r="C59" t="s">
         <v>465</v>
@@ -16034,7 +16034,7 @@
         <v>16259</v>
       </c>
       <c r="B60" t="n">
-        <v>141227</v>
+        <v>172396</v>
       </c>
       <c r="C60" t="s">
         <v>472</v>
@@ -16101,7 +16101,7 @@
         <v>16259</v>
       </c>
       <c r="B61" t="n">
-        <v>141228</v>
+        <v>172397</v>
       </c>
       <c r="C61" t="s">
         <v>478</v>
@@ -16172,7 +16172,7 @@
         <v>16259</v>
       </c>
       <c r="B62" t="n">
-        <v>141229</v>
+        <v>172398</v>
       </c>
       <c r="C62" t="s">
         <v>484</v>
@@ -16243,7 +16243,7 @@
         <v>16259</v>
       </c>
       <c r="B63" t="n">
-        <v>141230</v>
+        <v>172399</v>
       </c>
       <c r="C63" t="s">
         <v>491</v>
@@ -16314,7 +16314,7 @@
         <v>16259</v>
       </c>
       <c r="B64" t="n">
-        <v>141231</v>
+        <v>172400</v>
       </c>
       <c r="C64" t="s">
         <v>497</v>
@@ -16527,7 +16527,7 @@
         <v>16259</v>
       </c>
       <c r="B67" t="n">
-        <v>141232</v>
+        <v>172401</v>
       </c>
       <c r="C67" t="s">
         <v>515</v>
@@ -16598,7 +16598,7 @@
         <v>16259</v>
       </c>
       <c r="B68" t="n">
-        <v>141233</v>
+        <v>172402</v>
       </c>
       <c r="C68" t="s">
         <v>521</v>
@@ -16669,7 +16669,7 @@
         <v>16259</v>
       </c>
       <c r="B69" t="n">
-        <v>141234</v>
+        <v>172403</v>
       </c>
       <c r="C69" t="s">
         <v>527</v>
@@ -16734,7 +16734,7 @@
         <v>16259</v>
       </c>
       <c r="B70" t="n">
-        <v>141235</v>
+        <v>172404</v>
       </c>
       <c r="C70" t="s">
         <v>534</v>
@@ -16795,7 +16795,7 @@
         <v>16259</v>
       </c>
       <c r="B71" t="n">
-        <v>141236</v>
+        <v>172405</v>
       </c>
       <c r="C71" t="s">
         <v>540</v>
@@ -16866,7 +16866,7 @@
         <v>16259</v>
       </c>
       <c r="B72" t="n">
-        <v>141237</v>
+        <v>172406</v>
       </c>
       <c r="C72" t="s">
         <v>546</v>
@@ -16937,7 +16937,7 @@
         <v>16259</v>
       </c>
       <c r="B73" t="n">
-        <v>141238</v>
+        <v>172407</v>
       </c>
       <c r="C73" t="s">
         <v>552</v>
@@ -17002,7 +17002,7 @@
         <v>16259</v>
       </c>
       <c r="B74" t="n">
-        <v>141239</v>
+        <v>172408</v>
       </c>
       <c r="C74" t="s">
         <v>562</v>
@@ -17073,7 +17073,7 @@
         <v>16259</v>
       </c>
       <c r="B75" t="n">
-        <v>141240</v>
+        <v>172409</v>
       </c>
       <c r="C75" t="s">
         <v>568</v>
@@ -17144,7 +17144,7 @@
         <v>16259</v>
       </c>
       <c r="B76" t="n">
-        <v>141241</v>
+        <v>172410</v>
       </c>
       <c r="C76" t="s">
         <v>573</v>
@@ -17272,7 +17272,7 @@
         <v>16259</v>
       </c>
       <c r="B78" t="n">
-        <v>141242</v>
+        <v>172411</v>
       </c>
       <c r="C78" t="s">
         <v>587</v>
@@ -17343,7 +17343,7 @@
         <v>16259</v>
       </c>
       <c r="B79" t="n">
-        <v>141243</v>
+        <v>172412</v>
       </c>
       <c r="C79" t="s">
         <v>593</v>
@@ -17414,7 +17414,7 @@
         <v>16259</v>
       </c>
       <c r="B80" t="n">
-        <v>141244</v>
+        <v>172413</v>
       </c>
       <c r="C80" t="s">
         <v>598</v>
@@ -17558,7 +17558,7 @@
         <v>16259</v>
       </c>
       <c r="B82" t="n">
-        <v>141245</v>
+        <v>172414</v>
       </c>
       <c r="C82" t="s">
         <v>612</v>
@@ -17700,7 +17700,7 @@
         <v>16259</v>
       </c>
       <c r="B84" t="n">
-        <v>141246</v>
+        <v>172415</v>
       </c>
       <c r="C84" t="s">
         <v>627</v>
@@ -17771,7 +17771,7 @@
         <v>16259</v>
       </c>
       <c r="B85" t="n">
-        <v>141247</v>
+        <v>172416</v>
       </c>
       <c r="C85" t="s">
         <v>632</v>
@@ -17913,7 +17913,7 @@
         <v>16259</v>
       </c>
       <c r="B87" t="n">
-        <v>141248</v>
+        <v>172417</v>
       </c>
       <c r="C87" t="s">
         <v>644</v>
@@ -17984,7 +17984,7 @@
         <v>16259</v>
       </c>
       <c r="B88" t="n">
-        <v>141249</v>
+        <v>172418</v>
       </c>
       <c r="C88" t="s">
         <v>649</v>
@@ -18055,7 +18055,7 @@
         <v>16259</v>
       </c>
       <c r="B89" t="n">
-        <v>141250</v>
+        <v>172419</v>
       </c>
       <c r="C89" t="s">
         <v>655</v>
@@ -18126,7 +18126,7 @@
         <v>16259</v>
       </c>
       <c r="B90" t="n">
-        <v>141251</v>
+        <v>172420</v>
       </c>
       <c r="C90" t="s">
         <v>661</v>
@@ -18187,7 +18187,7 @@
         <v>16259</v>
       </c>
       <c r="B91" t="n">
-        <v>141252</v>
+        <v>172421</v>
       </c>
       <c r="C91" t="s">
         <v>667</v>
@@ -18248,7 +18248,7 @@
         <v>16259</v>
       </c>
       <c r="B92" t="n">
-        <v>141253</v>
+        <v>172422</v>
       </c>
       <c r="C92" t="s">
         <v>676</v>
@@ -18319,7 +18319,7 @@
         <v>16259</v>
       </c>
       <c r="B93" t="n">
-        <v>141254</v>
+        <v>172423</v>
       </c>
       <c r="C93" t="s">
         <v>681</v>
@@ -18384,7 +18384,7 @@
         <v>16259</v>
       </c>
       <c r="B94" t="n">
-        <v>141255</v>
+        <v>172424</v>
       </c>
       <c r="C94" t="s">
         <v>687</v>
@@ -18591,7 +18591,7 @@
         <v>16259</v>
       </c>
       <c r="B97" t="n">
-        <v>141256</v>
+        <v>172425</v>
       </c>
       <c r="C97" t="s">
         <v>707</v>
@@ -18662,7 +18662,7 @@
         <v>16259</v>
       </c>
       <c r="B98" t="n">
-        <v>141257</v>
+        <v>172426</v>
       </c>
       <c r="C98" t="s">
         <v>713</v>
@@ -18723,7 +18723,7 @@
         <v>16259</v>
       </c>
       <c r="B99" t="n">
-        <v>141258</v>
+        <v>172427</v>
       </c>
       <c r="C99" t="s">
         <v>720</v>
@@ -18794,7 +18794,7 @@
         <v>16259</v>
       </c>
       <c r="B100" t="n">
-        <v>141259</v>
+        <v>172428</v>
       </c>
       <c r="C100" t="s">
         <v>727</v>
@@ -18936,7 +18936,7 @@
         <v>16259</v>
       </c>
       <c r="B102" t="n">
-        <v>141260</v>
+        <v>172429</v>
       </c>
       <c r="C102" t="s">
         <v>739</v>
@@ -19007,7 +19007,7 @@
         <v>16259</v>
       </c>
       <c r="B103" t="n">
-        <v>141261</v>
+        <v>172430</v>
       </c>
       <c r="C103" t="s">
         <v>745</v>
@@ -19078,7 +19078,7 @@
         <v>16259</v>
       </c>
       <c r="B104" t="n">
-        <v>141262</v>
+        <v>172431</v>
       </c>
       <c r="C104" t="s">
         <v>750</v>
@@ -19149,7 +19149,7 @@
         <v>16259</v>
       </c>
       <c r="B105" t="n">
-        <v>141212</v>
+        <v>141203</v>
       </c>
       <c r="C105" t="s">
         <v>356</v>
@@ -19216,7 +19216,7 @@
         <v>16259</v>
       </c>
       <c r="B106" t="n">
-        <v>141263</v>
+        <v>172432</v>
       </c>
       <c r="C106" t="s">
         <v>762</v>
@@ -19287,7 +19287,7 @@
         <v>16259</v>
       </c>
       <c r="B107" t="n">
-        <v>141264</v>
+        <v>172433</v>
       </c>
       <c r="C107" t="s">
         <v>769</v>
@@ -19358,7 +19358,7 @@
         <v>16259</v>
       </c>
       <c r="B108" t="n">
-        <v>141265</v>
+        <v>172434</v>
       </c>
       <c r="C108" t="s">
         <v>775</v>
@@ -19433,7 +19433,7 @@
         <v>16259</v>
       </c>
       <c r="B109" t="n">
-        <v>141266</v>
+        <v>172435</v>
       </c>
       <c r="C109" t="s">
         <v>784</v>
@@ -19504,7 +19504,7 @@
         <v>16259</v>
       </c>
       <c r="B110" t="n">
-        <v>141267</v>
+        <v>172436</v>
       </c>
       <c r="C110" t="s">
         <v>790</v>
@@ -19565,7 +19565,7 @@
         <v>16259</v>
       </c>
       <c r="B111" t="n">
-        <v>141268</v>
+        <v>172437</v>
       </c>
       <c r="C111" t="s">
         <v>799</v>
@@ -19626,7 +19626,7 @@
         <v>16259</v>
       </c>
       <c r="B112" t="n">
-        <v>141269</v>
+        <v>172438</v>
       </c>
       <c r="C112" t="s">
         <v>805</v>
@@ -19768,7 +19768,7 @@
         <v>16259</v>
       </c>
       <c r="B114" t="n">
-        <v>141270</v>
+        <v>172439</v>
       </c>
       <c r="C114" t="s">
         <v>818</v>
@@ -19906,7 +19906,7 @@
         <v>16259</v>
       </c>
       <c r="B116" t="n">
-        <v>141271</v>
+        <v>172440</v>
       </c>
       <c r="C116" t="s">
         <v>831</v>
@@ -19977,7 +19977,7 @@
         <v>16259</v>
       </c>
       <c r="B117" t="n">
-        <v>141272</v>
+        <v>172441</v>
       </c>
       <c r="C117" t="s">
         <v>840</v>
@@ -20048,7 +20048,7 @@
         <v>16259</v>
       </c>
       <c r="B118" t="n">
-        <v>141273</v>
+        <v>172442</v>
       </c>
       <c r="C118" t="s">
         <v>846</v>
@@ -20119,7 +20119,7 @@
         <v>16259</v>
       </c>
       <c r="B119" t="n">
-        <v>141274</v>
+        <v>172443</v>
       </c>
       <c r="C119" t="s">
         <v>852</v>
@@ -20190,7 +20190,7 @@
         <v>16259</v>
       </c>
       <c r="B120" t="n">
-        <v>141275</v>
+        <v>172444</v>
       </c>
       <c r="C120" t="s">
         <v>859</v>
@@ -20261,7 +20261,7 @@
         <v>16259</v>
       </c>
       <c r="B121" t="n">
-        <v>141276</v>
+        <v>172445</v>
       </c>
       <c r="C121" t="s">
         <v>865</v>
@@ -20332,7 +20332,7 @@
         <v>16259</v>
       </c>
       <c r="B122" t="n">
-        <v>141277</v>
+        <v>172446</v>
       </c>
       <c r="C122" t="s">
         <v>871</v>
@@ -20403,7 +20403,7 @@
         <v>16259</v>
       </c>
       <c r="B123" t="n">
-        <v>141278</v>
+        <v>172447</v>
       </c>
       <c r="C123" t="s">
         <v>877</v>
@@ -20474,7 +20474,7 @@
         <v>16259</v>
       </c>
       <c r="B124" t="n">
-        <v>141279</v>
+        <v>172448</v>
       </c>
       <c r="C124" t="s">
         <v>883</v>
@@ -20549,7 +20549,7 @@
         <v>16259</v>
       </c>
       <c r="B125" t="n">
-        <v>141280</v>
+        <v>172449</v>
       </c>
       <c r="C125" t="s">
         <v>892</v>
@@ -20616,7 +20616,7 @@
         <v>16259</v>
       </c>
       <c r="B126" t="n">
-        <v>141205</v>
+        <v>141206</v>
       </c>
       <c r="C126" t="s">
         <v>298</v>
@@ -20681,7 +20681,7 @@
         <v>16259</v>
       </c>
       <c r="B127" t="n">
-        <v>141281</v>
+        <v>172450</v>
       </c>
       <c r="C127" t="s">
         <v>907</v>
@@ -20894,7 +20894,7 @@
         <v>16259</v>
       </c>
       <c r="B130" t="n">
-        <v>141282</v>
+        <v>172451</v>
       </c>
       <c r="C130" t="s">
         <v>924</v>
@@ -21107,7 +21107,7 @@
         <v>16259</v>
       </c>
       <c r="B133" t="n">
-        <v>141283</v>
+        <v>172452</v>
       </c>
       <c r="C133" t="s">
         <v>945</v>
@@ -21178,7 +21178,7 @@
         <v>16259</v>
       </c>
       <c r="B134" t="n">
-        <v>141284</v>
+        <v>172453</v>
       </c>
       <c r="C134" t="s">
         <v>954</v>
@@ -21249,7 +21249,7 @@
         <v>16259</v>
       </c>
       <c r="B135" t="n">
-        <v>141285</v>
+        <v>172454</v>
       </c>
       <c r="C135" t="s">
         <v>960</v>
@@ -21387,7 +21387,7 @@
         <v>16259</v>
       </c>
       <c r="B137" t="n">
-        <v>141286</v>
+        <v>172455</v>
       </c>
       <c r="C137" t="s">
         <v>973</v>
@@ -21458,7 +21458,7 @@
         <v>16259</v>
       </c>
       <c r="B138" t="n">
-        <v>141287</v>
+        <v>172456</v>
       </c>
       <c r="C138" t="s">
         <v>979</v>
@@ -21529,7 +21529,7 @@
         <v>16259</v>
       </c>
       <c r="B139" t="n">
-        <v>141288</v>
+        <v>172457</v>
       </c>
       <c r="C139" t="s">
         <v>985</v>
@@ -21600,7 +21600,7 @@
         <v>16259</v>
       </c>
       <c r="B140" t="n">
-        <v>141191</v>
+        <v>141212</v>
       </c>
       <c r="C140" t="s">
         <v>178</v>
@@ -21671,7 +21671,7 @@
         <v>16259</v>
       </c>
       <c r="B141" t="n">
-        <v>141289</v>
+        <v>141358</v>
       </c>
       <c r="C141" t="s">
         <v>995</v>
@@ -21801,7 +21801,7 @@
         <v>16259</v>
       </c>
       <c r="B143" t="n">
-        <v>141290</v>
+        <v>172458</v>
       </c>
       <c r="C143" t="s">
         <v>1007</v>
@@ -21872,7 +21872,7 @@
         <v>16259</v>
       </c>
       <c r="B144" t="n">
-        <v>141291</v>
+        <v>172459</v>
       </c>
       <c r="C144" t="s">
         <v>1014</v>
@@ -21943,7 +21943,7 @@
         <v>16259</v>
       </c>
       <c r="B145" t="n">
-        <v>141292</v>
+        <v>172460</v>
       </c>
       <c r="C145" t="s">
         <v>1020</v>
@@ -22156,7 +22156,7 @@
         <v>16259</v>
       </c>
       <c r="B148" t="n">
-        <v>141293</v>
+        <v>172461</v>
       </c>
       <c r="C148" t="s">
         <v>1039</v>
@@ -22227,7 +22227,7 @@
         <v>16259</v>
       </c>
       <c r="B149" t="n">
-        <v>141294</v>
+        <v>172462</v>
       </c>
       <c r="C149" t="s">
         <v>1044</v>
@@ -22298,7 +22298,7 @@
         <v>16259</v>
       </c>
       <c r="B150" t="n">
-        <v>141295</v>
+        <v>172463</v>
       </c>
       <c r="C150" t="s">
         <v>1050</v>
@@ -22363,7 +22363,7 @@
         <v>16259</v>
       </c>
       <c r="B151" t="n">
-        <v>141296</v>
+        <v>172464</v>
       </c>
       <c r="C151" t="s">
         <v>1057</v>
@@ -22509,7 +22509,7 @@
         <v>16259</v>
       </c>
       <c r="B153" t="n">
-        <v>141297</v>
+        <v>172465</v>
       </c>
       <c r="C153" t="s">
         <v>1070</v>
@@ -22576,7 +22576,7 @@
         <v>16259</v>
       </c>
       <c r="B154" t="n">
-        <v>141298</v>
+        <v>172466</v>
       </c>
       <c r="C154" t="s">
         <v>1076</v>
@@ -22643,7 +22643,7 @@
         <v>16259</v>
       </c>
       <c r="B155" t="n">
-        <v>141299</v>
+        <v>172467</v>
       </c>
       <c r="C155" t="s">
         <v>1082</v>
@@ -22708,7 +22708,7 @@
         <v>16259</v>
       </c>
       <c r="B156" t="n">
-        <v>141300</v>
+        <v>172468</v>
       </c>
       <c r="C156" t="s">
         <v>1088</v>
@@ -22779,7 +22779,7 @@
         <v>16259</v>
       </c>
       <c r="B157" t="n">
-        <v>141301</v>
+        <v>172469</v>
       </c>
       <c r="C157" t="s">
         <v>1094</v>
@@ -22850,7 +22850,7 @@
         <v>16259</v>
       </c>
       <c r="B158" t="n">
-        <v>141302</v>
+        <v>172470</v>
       </c>
       <c r="C158" t="s">
         <v>1099</v>
@@ -22925,7 +22925,7 @@
         <v>16259</v>
       </c>
       <c r="B159" t="n">
-        <v>141303</v>
+        <v>172471</v>
       </c>
       <c r="C159" t="s">
         <v>1108</v>
@@ -22996,7 +22996,7 @@
         <v>16259</v>
       </c>
       <c r="B160" t="n">
-        <v>141304</v>
+        <v>172472</v>
       </c>
       <c r="C160" t="s">
         <v>1116</v>
@@ -23067,7 +23067,7 @@
         <v>16259</v>
       </c>
       <c r="B161" t="n">
-        <v>141305</v>
+        <v>172473</v>
       </c>
       <c r="C161" t="s">
         <v>1122</v>
@@ -23132,7 +23132,7 @@
         <v>16259</v>
       </c>
       <c r="B162" t="n">
-        <v>141306</v>
+        <v>172474</v>
       </c>
       <c r="C162" t="s">
         <v>1128</v>
@@ -23205,7 +23205,7 @@
         <v>16259</v>
       </c>
       <c r="B163" t="n">
-        <v>141307</v>
+        <v>172475</v>
       </c>
       <c r="C163" t="s">
         <v>1137</v>
@@ -23276,7 +23276,7 @@
         <v>16259</v>
       </c>
       <c r="B164" t="n">
-        <v>141308</v>
+        <v>172476</v>
       </c>
       <c r="C164" t="s">
         <v>1142</v>
@@ -23544,7 +23544,7 @@
         <v>16259</v>
       </c>
       <c r="B168" t="n">
-        <v>141309</v>
+        <v>172477</v>
       </c>
       <c r="C168" t="s">
         <v>1167</v>
@@ -23611,7 +23611,7 @@
         <v>16259</v>
       </c>
       <c r="B169" t="n">
-        <v>141310</v>
+        <v>172478</v>
       </c>
       <c r="C169" t="s">
         <v>1173</v>
@@ -23682,7 +23682,7 @@
         <v>16259</v>
       </c>
       <c r="B170" t="n">
-        <v>141311</v>
+        <v>172479</v>
       </c>
       <c r="C170" t="s">
         <v>1177</v>
@@ -23757,7 +23757,7 @@
         <v>16259</v>
       </c>
       <c r="B171" t="n">
-        <v>141312</v>
+        <v>172480</v>
       </c>
       <c r="C171" t="s">
         <v>1186</v>
@@ -23899,7 +23899,7 @@
         <v>16259</v>
       </c>
       <c r="B173" t="n">
-        <v>141313</v>
+        <v>172481</v>
       </c>
       <c r="C173" t="s">
         <v>1197</v>
@@ -23970,7 +23970,7 @@
         <v>16259</v>
       </c>
       <c r="B174" t="n">
-        <v>141314</v>
+        <v>172482</v>
       </c>
       <c r="C174" t="s">
         <v>1204</v>
@@ -24041,7 +24041,7 @@
         <v>16259</v>
       </c>
       <c r="B175" t="n">
-        <v>141315</v>
+        <v>172483</v>
       </c>
       <c r="C175" t="s">
         <v>1210</v>
@@ -24110,7 +24110,7 @@
         <v>16259</v>
       </c>
       <c r="B176" t="n">
-        <v>141316</v>
+        <v>172484</v>
       </c>
       <c r="C176" t="s">
         <v>1219</v>
@@ -24252,7 +24252,7 @@
         <v>16259</v>
       </c>
       <c r="B178" t="n">
-        <v>141317</v>
+        <v>172485</v>
       </c>
       <c r="C178" t="s">
         <v>1231</v>
@@ -24394,7 +24394,7 @@
         <v>16259</v>
       </c>
       <c r="B180" t="n">
-        <v>141318</v>
+        <v>172486</v>
       </c>
       <c r="C180" t="s">
         <v>1243</v>
@@ -24465,7 +24465,7 @@
         <v>16259</v>
       </c>
       <c r="B181" t="n">
-        <v>141319</v>
+        <v>172487</v>
       </c>
       <c r="C181" t="s">
         <v>1249</v>
@@ -24536,7 +24536,7 @@
         <v>16259</v>
       </c>
       <c r="B182" t="n">
-        <v>141320</v>
+        <v>172488</v>
       </c>
       <c r="C182" t="s">
         <v>1255</v>
@@ -24597,7 +24597,7 @@
         <v>16259</v>
       </c>
       <c r="B183" t="n">
-        <v>141321</v>
+        <v>172489</v>
       </c>
       <c r="C183" t="s">
         <v>1261</v>
@@ -24662,7 +24662,7 @@
         <v>16259</v>
       </c>
       <c r="B184" t="n">
-        <v>141322</v>
+        <v>172490</v>
       </c>
       <c r="C184" t="s">
         <v>1267</v>
@@ -24733,7 +24733,7 @@
         <v>16259</v>
       </c>
       <c r="B185" t="n">
-        <v>141323</v>
+        <v>172491</v>
       </c>
       <c r="C185" t="s">
         <v>1273</v>
@@ -25153,7 +25153,7 @@
         <v>16259</v>
       </c>
       <c r="B191" t="n">
-        <v>141324</v>
+        <v>172492</v>
       </c>
       <c r="C191" t="s">
         <v>1310</v>
@@ -25224,7 +25224,7 @@
         <v>16259</v>
       </c>
       <c r="B192" t="n">
-        <v>141325</v>
+        <v>172493</v>
       </c>
       <c r="C192" t="s">
         <v>1317</v>
@@ -25295,7 +25295,7 @@
         <v>16259</v>
       </c>
       <c r="B193" t="n">
-        <v>141326</v>
+        <v>172494</v>
       </c>
       <c r="C193" t="s">
         <v>1323</v>
@@ -25352,7 +25352,7 @@
         <v>16259</v>
       </c>
       <c r="B194" t="n">
-        <v>141327</v>
+        <v>172495</v>
       </c>
       <c r="C194" t="s">
         <v>1329</v>
@@ -25427,7 +25427,7 @@
         <v>16259</v>
       </c>
       <c r="B195" t="n">
-        <v>141328</v>
+        <v>172496</v>
       </c>
       <c r="C195" t="s">
         <v>1338</v>
@@ -25845,7 +25845,7 @@
         <v>16259</v>
       </c>
       <c r="B201" t="n">
-        <v>141329</v>
+        <v>172497</v>
       </c>
       <c r="C201" t="s">
         <v>1377</v>
@@ -25920,7 +25920,7 @@
         <v>16259</v>
       </c>
       <c r="B202" t="n">
-        <v>141330</v>
+        <v>172498</v>
       </c>
       <c r="C202" t="s">
         <v>1384</v>
@@ -25995,7 +25995,7 @@
         <v>16259</v>
       </c>
       <c r="B203" t="n">
-        <v>141331</v>
+        <v>172499</v>
       </c>
       <c r="C203" t="s">
         <v>1393</v>
@@ -26056,7 +26056,7 @@
         <v>16259</v>
       </c>
       <c r="B204" t="n">
-        <v>141332</v>
+        <v>172500</v>
       </c>
       <c r="C204" t="s">
         <v>1399</v>
@@ -26127,7 +26127,7 @@
         <v>16259</v>
       </c>
       <c r="B205" t="n">
-        <v>141333</v>
+        <v>172501</v>
       </c>
       <c r="C205" t="s">
         <v>1405</v>
@@ -26198,7 +26198,7 @@
         <v>16259</v>
       </c>
       <c r="B206" t="n">
-        <v>141334</v>
+        <v>172502</v>
       </c>
       <c r="C206" t="s">
         <v>1414</v>
@@ -26407,7 +26407,7 @@
         <v>16259</v>
       </c>
       <c r="B209" t="n">
-        <v>141335</v>
+        <v>172503</v>
       </c>
       <c r="C209" t="s">
         <v>1433</v>
@@ -26612,7 +26612,7 @@
         <v>16259</v>
       </c>
       <c r="B212" t="n">
-        <v>141336</v>
+        <v>172504</v>
       </c>
       <c r="C212" t="s">
         <v>1456</v>
@@ -26687,7 +26687,7 @@
         <v>16259</v>
       </c>
       <c r="B213" t="n">
-        <v>141337</v>
+        <v>172505</v>
       </c>
       <c r="C213" t="s">
         <v>1463</v>
@@ -26758,7 +26758,7 @@
         <v>16259</v>
       </c>
       <c r="B214" t="n">
-        <v>141338</v>
+        <v>172506</v>
       </c>
       <c r="C214" t="s">
         <v>1470</v>
@@ -26833,7 +26833,7 @@
         <v>16259</v>
       </c>
       <c r="B215" t="n">
-        <v>141339</v>
+        <v>172507</v>
       </c>
       <c r="C215" t="s">
         <v>1479</v>
@@ -27125,7 +27125,7 @@
         <v>16259</v>
       </c>
       <c r="B219" t="n">
-        <v>141340</v>
+        <v>172508</v>
       </c>
       <c r="C219" t="s">
         <v>1509</v>
@@ -27190,7 +27190,7 @@
         <v>16259</v>
       </c>
       <c r="B220" t="n">
-        <v>141341</v>
+        <v>172509</v>
       </c>
       <c r="C220" t="s">
         <v>1516</v>
@@ -27486,7 +27486,7 @@
         <v>16259</v>
       </c>
       <c r="B224" t="n">
-        <v>141342</v>
+        <v>172510</v>
       </c>
       <c r="C224" t="s">
         <v>1547</v>
@@ -27547,7 +27547,7 @@
         <v>16259</v>
       </c>
       <c r="B225" t="n">
-        <v>141343</v>
+        <v>172511</v>
       </c>
       <c r="C225" t="s">
         <v>1556</v>
@@ -27616,7 +27616,7 @@
         <v>16259</v>
       </c>
       <c r="B226" t="n">
-        <v>141344</v>
+        <v>172512</v>
       </c>
       <c r="C226" t="s">
         <v>1564</v>
@@ -27900,7 +27900,7 @@
         <v>16259</v>
       </c>
       <c r="B230" t="n">
-        <v>141345</v>
+        <v>172513</v>
       </c>
       <c r="C230" t="s">
         <v>1596</v>
@@ -27975,7 +27975,7 @@
         <v>16259</v>
       </c>
       <c r="B231" t="n">
-        <v>141346</v>
+        <v>172514</v>
       </c>
       <c r="C231" t="s">
         <v>1603</v>
@@ -28121,7 +28121,7 @@
         <v>16259</v>
       </c>
       <c r="B233" t="n">
-        <v>141347</v>
+        <v>172515</v>
       </c>
       <c r="C233" t="s">
         <v>1619</v>
@@ -28267,7 +28267,7 @@
         <v>16259</v>
       </c>
       <c r="B235" t="n">
-        <v>141348</v>
+        <v>172516</v>
       </c>
       <c r="C235" t="s">
         <v>1635</v>
@@ -28413,7 +28413,7 @@
         <v>16259</v>
       </c>
       <c r="B237" t="n">
-        <v>141349</v>
+        <v>172517</v>
       </c>
       <c r="C237" t="s">
         <v>1653</v>
@@ -28488,7 +28488,7 @@
         <v>16259</v>
       </c>
       <c r="B238" t="n">
-        <v>141350</v>
+        <v>172518</v>
       </c>
       <c r="C238" t="s">
         <v>1660</v>
@@ -28563,7 +28563,7 @@
         <v>16259</v>
       </c>
       <c r="B239" t="n">
-        <v>141351</v>
+        <v>172519</v>
       </c>
       <c r="C239" t="s">
         <v>1666</v>
@@ -28638,7 +28638,7 @@
         <v>16259</v>
       </c>
       <c r="B240" t="n">
-        <v>141352</v>
+        <v>172520</v>
       </c>
       <c r="C240" t="s">
         <v>1675</v>
@@ -28703,7 +28703,7 @@
         <v>16259</v>
       </c>
       <c r="B241" t="n">
-        <v>141353</v>
+        <v>172521</v>
       </c>
       <c r="C241" t="s">
         <v>1684</v>
@@ -28908,7 +28908,7 @@
         <v>16259</v>
       </c>
       <c r="B244" t="n">
-        <v>141354</v>
+        <v>172522</v>
       </c>
       <c r="C244" t="s">
         <v>1705</v>
@@ -29188,7 +29188,7 @@
         <v>16259</v>
       </c>
       <c r="B248" t="n">
-        <v>141355</v>
+        <v>172523</v>
       </c>
       <c r="C248" t="s">
         <v>1735</v>
@@ -29466,7 +29466,7 @@
         <v>16259</v>
       </c>
       <c r="B252" t="n">
-        <v>141356</v>
+        <v>172524</v>
       </c>
       <c r="C252" t="s">
         <v>1760</v>
@@ -29537,7 +29537,7 @@
         <v>16259</v>
       </c>
       <c r="B253" t="n">
-        <v>141357</v>
+        <v>172525</v>
       </c>
       <c r="C253" t="s">
         <v>1770</v>
@@ -29665,7 +29665,7 @@
         <v>16259</v>
       </c>
       <c r="B255" t="n">
-        <v>141358</v>
+        <v>172526</v>
       </c>
       <c r="C255" t="s">
         <v>1782</v>
@@ -29945,7 +29945,7 @@
         <v>16259</v>
       </c>
       <c r="B259" t="n">
-        <v>141359</v>
+        <v>172527</v>
       </c>
       <c r="C259" t="s">
         <v>1806</v>
@@ -30081,7 +30081,7 @@
         <v>16259</v>
       </c>
       <c r="B261" t="n">
-        <v>141360</v>
+        <v>172528</v>
       </c>
       <c r="C261" t="s">
         <v>1818</v>
@@ -30142,7 +30142,7 @@
         <v>16259</v>
       </c>
       <c r="B262" t="n">
-        <v>141361</v>
+        <v>172529</v>
       </c>
       <c r="C262" t="s">
         <v>1824</v>
@@ -30213,7 +30213,7 @@
         <v>16259</v>
       </c>
       <c r="B263" t="n">
-        <v>141362</v>
+        <v>172530</v>
       </c>
       <c r="C263" t="s">
         <v>1830</v>
@@ -30274,7 +30274,7 @@
         <v>16259</v>
       </c>
       <c r="B264" t="n">
-        <v>141363</v>
+        <v>172531</v>
       </c>
       <c r="C264" t="s">
         <v>1837</v>
@@ -30619,7 +30619,7 @@
         <v>16259</v>
       </c>
       <c r="B269" t="n">
-        <v>141364</v>
+        <v>141321</v>
       </c>
       <c r="C269" t="s">
         <v>1869</v>
@@ -30897,7 +30897,7 @@
         <v>16259</v>
       </c>
       <c r="B273" t="n">
-        <v>141365</v>
+        <v>172532</v>
       </c>
       <c r="C273" t="s">
         <v>1893</v>
@@ -31025,7 +31025,7 @@
         <v>16259</v>
       </c>
       <c r="B275" t="n">
-        <v>141366</v>
+        <v>141299</v>
       </c>
       <c r="C275" t="s">
         <v>1906</v>
@@ -31094,7 +31094,7 @@
         <v>16259</v>
       </c>
       <c r="B276" t="n">
-        <v>141367</v>
+        <v>172533</v>
       </c>
       <c r="C276" t="s">
         <v>1912</v>
@@ -31165,7 +31165,7 @@
         <v>16259</v>
       </c>
       <c r="B277" t="n">
-        <v>141368</v>
+        <v>172534</v>
       </c>
       <c r="C277" t="s">
         <v>1917</v>
@@ -31305,7 +31305,7 @@
         <v>16259</v>
       </c>
       <c r="B279" t="n">
-        <v>141369</v>
+        <v>172535</v>
       </c>
       <c r="C279" t="s">
         <v>1932</v>
@@ -31380,7 +31380,7 @@
         <v>16259</v>
       </c>
       <c r="B280" t="n">
-        <v>141370</v>
+        <v>172536</v>
       </c>
       <c r="C280" t="s">
         <v>1939</v>
@@ -31445,7 +31445,7 @@
         <v>16259</v>
       </c>
       <c r="B281" t="n">
-        <v>141371</v>
+        <v>172537</v>
       </c>
       <c r="C281" t="s">
         <v>1946</v>
@@ -31591,7 +31591,7 @@
         <v>16259</v>
       </c>
       <c r="B283" t="n">
-        <v>141372</v>
+        <v>172538</v>
       </c>
       <c r="C283" t="s">
         <v>1962</v>
@@ -31741,7 +31741,7 @@
         <v>16259</v>
       </c>
       <c r="B285" t="n">
-        <v>141373</v>
+        <v>172539</v>
       </c>
       <c r="C285" t="s">
         <v>1975</v>
@@ -31891,7 +31891,7 @@
         <v>16259</v>
       </c>
       <c r="B287" t="n">
-        <v>141374</v>
+        <v>172540</v>
       </c>
       <c r="C287" t="s">
         <v>1989</v>
@@ -32112,7 +32112,7 @@
         <v>16259</v>
       </c>
       <c r="B290" t="n">
-        <v>141375</v>
+        <v>172541</v>
       </c>
       <c r="C290" t="s">
         <v>2013</v>
@@ -32262,7 +32262,7 @@
         <v>16259</v>
       </c>
       <c r="B292" t="n">
-        <v>141376</v>
+        <v>172542</v>
       </c>
       <c r="C292" t="s">
         <v>2029</v>
@@ -32333,7 +32333,7 @@
         <v>16259</v>
       </c>
       <c r="B293" t="n">
-        <v>141377</v>
+        <v>172543</v>
       </c>
       <c r="C293" t="s">
         <v>2036</v>
@@ -32477,7 +32477,7 @@
         <v>16259</v>
       </c>
       <c r="B295" t="n">
-        <v>141378</v>
+        <v>172544</v>
       </c>
       <c r="C295" t="s">
         <v>2051</v>
@@ -32686,7 +32686,7 @@
         <v>16259</v>
       </c>
       <c r="B298" t="n">
-        <v>141379</v>
+        <v>172545</v>
       </c>
       <c r="C298" t="s">
         <v>2073</v>
@@ -32761,7 +32761,7 @@
         <v>16259</v>
       </c>
       <c r="B299" t="n">
-        <v>141380</v>
+        <v>172546</v>
       </c>
       <c r="C299" t="s">
         <v>2079</v>
@@ -32832,7 +32832,7 @@
         <v>16259</v>
       </c>
       <c r="B300" t="n">
-        <v>141381</v>
+        <v>172547</v>
       </c>
       <c r="C300" t="s">
         <v>2086</v>
@@ -32978,7 +32978,7 @@
         <v>16259</v>
       </c>
       <c r="B302" t="n">
-        <v>141382</v>
+        <v>172548</v>
       </c>
       <c r="C302" t="s">
         <v>2102</v>
@@ -33053,7 +33053,7 @@
         <v>16259</v>
       </c>
       <c r="B303" t="n">
-        <v>141383</v>
+        <v>172549</v>
       </c>
       <c r="C303" t="s">
         <v>2109</v>
@@ -33122,7 +33122,7 @@
         <v>16259</v>
       </c>
       <c r="B304" t="n">
-        <v>141384</v>
+        <v>172550</v>
       </c>
       <c r="C304" t="s">
         <v>2116</v>
@@ -33183,7 +33183,7 @@
         <v>16259</v>
       </c>
       <c r="B305" t="n">
-        <v>141385</v>
+        <v>172551</v>
       </c>
       <c r="C305" t="s">
         <v>2123</v>
@@ -33477,7 +33477,7 @@
         <v>16259</v>
       </c>
       <c r="B309" t="n">
-        <v>141386</v>
+        <v>172552</v>
       </c>
       <c r="C309" t="s">
         <v>2153</v>
@@ -33621,7 +33621,7 @@
         <v>16259</v>
       </c>
       <c r="B311" t="n">
-        <v>141387</v>
+        <v>172553</v>
       </c>
       <c r="C311" t="s">
         <v>2166</v>
@@ -33986,7 +33986,7 @@
         <v>16259</v>
       </c>
       <c r="B316" t="n">
-        <v>141388</v>
+        <v>172554</v>
       </c>
       <c r="C316" t="s">
         <v>2199</v>
@@ -34051,7 +34051,7 @@
         <v>16259</v>
       </c>
       <c r="B317" t="n">
-        <v>141389</v>
+        <v>172555</v>
       </c>
       <c r="C317" t="s">
         <v>2206</v>
@@ -34126,7 +34126,7 @@
         <v>16259</v>
       </c>
       <c r="B318" t="n">
-        <v>141390</v>
+        <v>172556</v>
       </c>
       <c r="C318" t="s">
         <v>2215</v>
@@ -34276,7 +34276,7 @@
         <v>16259</v>
       </c>
       <c r="B320" t="n">
-        <v>141391</v>
+        <v>172557</v>
       </c>
       <c r="C320" t="s">
         <v>2228</v>
@@ -34347,7 +34347,7 @@
         <v>16259</v>
       </c>
       <c r="B321" t="n">
-        <v>141392</v>
+        <v>172558</v>
       </c>
       <c r="C321" t="s">
         <v>2236</v>
@@ -34477,7 +34477,7 @@
         <v>16259</v>
       </c>
       <c r="B323" t="n">
-        <v>141393</v>
+        <v>172559</v>
       </c>
       <c r="C323" t="s">
         <v>2249</v>
@@ -34548,7 +34548,7 @@
         <v>16259</v>
       </c>
       <c r="B324" t="n">
-        <v>141394</v>
+        <v>172560</v>
       </c>
       <c r="C324" t="s">
         <v>2256</v>
@@ -34913,7 +34913,7 @@
         <v>16259</v>
       </c>
       <c r="B329" t="n">
-        <v>141395</v>
+        <v>172561</v>
       </c>
       <c r="C329" t="s">
         <v>2289</v>
@@ -35280,7 +35280,7 @@
         <v>16259</v>
       </c>
       <c r="B334" t="n">
-        <v>141365</v>
+        <v>141299</v>
       </c>
       <c r="C334" t="s">
         <v>1906</v>
@@ -35414,7 +35414,7 @@
         <v>16259</v>
       </c>
       <c r="B336" t="n">
-        <v>141396</v>
+        <v>172562</v>
       </c>
       <c r="C336" t="s">
         <v>2334</v>
@@ -35481,7 +35481,7 @@
         <v>16259</v>
       </c>
       <c r="B337" t="n">
-        <v>141397</v>
+        <v>172563</v>
       </c>
       <c r="C337" t="s">
         <v>2340</v>
@@ -35552,7 +35552,7 @@
         <v>16259</v>
       </c>
       <c r="B338" t="n">
-        <v>141398</v>
+        <v>172564</v>
       </c>
       <c r="C338" t="s">
         <v>2346</v>
@@ -35694,7 +35694,7 @@
         <v>16259</v>
       </c>
       <c r="B340" t="n">
-        <v>141399</v>
+        <v>172565</v>
       </c>
       <c r="C340" t="s">
         <v>2356</v>
@@ -35761,7 +35761,7 @@
         <v>16259</v>
       </c>
       <c r="B341" t="n">
-        <v>141400</v>
+        <v>172566</v>
       </c>
       <c r="C341" t="s">
         <v>2362</v>
@@ -35889,7 +35889,7 @@
         <v>16259</v>
       </c>
       <c r="B343" t="n">
-        <v>141401</v>
+        <v>172567</v>
       </c>
       <c r="C343" t="s">
         <v>2374</v>
@@ -36021,7 +36021,7 @@
         <v>16259</v>
       </c>
       <c r="B345" t="n">
-        <v>141402</v>
+        <v>172568</v>
       </c>
       <c r="C345" t="s">
         <v>2388</v>
@@ -36167,7 +36167,7 @@
         <v>16259</v>
       </c>
       <c r="B347" t="n">
-        <v>141403</v>
+        <v>172569</v>
       </c>
       <c r="C347" t="s">
         <v>2403</v>
@@ -36378,7 +36378,7 @@
         <v>16259</v>
       </c>
       <c r="B350" t="n">
-        <v>141404</v>
+        <v>172570</v>
       </c>
       <c r="C350" t="s">
         <v>2427</v>
@@ -36512,7 +36512,7 @@
         <v>16259</v>
       </c>
       <c r="B352" t="n">
-        <v>141405</v>
+        <v>172571</v>
       </c>
       <c r="C352" t="s">
         <v>2440</v>
@@ -36652,7 +36652,7 @@
         <v>16259</v>
       </c>
       <c r="B354" t="n">
-        <v>141406</v>
+        <v>172572</v>
       </c>
       <c r="C354" t="s">
         <v>2454</v>
@@ -36802,7 +36802,7 @@
         <v>16259</v>
       </c>
       <c r="B356" t="n">
-        <v>141407</v>
+        <v>172573</v>
       </c>
       <c r="C356" t="s">
         <v>2470</v>
@@ -36946,7 +36946,7 @@
         <v>16259</v>
       </c>
       <c r="B358" t="n">
-        <v>141408</v>
+        <v>172574</v>
       </c>
       <c r="C358" t="s">
         <v>2484</v>
@@ -37157,7 +37157,7 @@
         <v>16259</v>
       </c>
       <c r="B361" t="n">
-        <v>141409</v>
+        <v>172575</v>
       </c>
       <c r="C361" t="s">
         <v>2504</v>
@@ -37382,7 +37382,7 @@
         <v>16259</v>
       </c>
       <c r="B364" t="n">
-        <v>141410</v>
+        <v>172576</v>
       </c>
       <c r="C364" t="s">
         <v>2529</v>
@@ -37532,7 +37532,7 @@
         <v>16259</v>
       </c>
       <c r="B366" t="n">
-        <v>141411</v>
+        <v>172577</v>
       </c>
       <c r="C366" t="s">
         <v>2543</v>
@@ -37682,7 +37682,7 @@
         <v>16259</v>
       </c>
       <c r="B368" t="n">
-        <v>141412</v>
+        <v>172578</v>
       </c>
       <c r="C368" t="s">
         <v>2556</v>
@@ -37757,7 +37757,7 @@
         <v>16259</v>
       </c>
       <c r="B369" t="n">
-        <v>141413</v>
+        <v>172579</v>
       </c>
       <c r="C369" t="s">
         <v>2563</v>
@@ -37970,7 +37970,7 @@
         <v>16259</v>
       </c>
       <c r="B372" t="n">
-        <v>141414</v>
+        <v>172580</v>
       </c>
       <c r="C372" t="s">
         <v>2580</v>
@@ -38116,7 +38116,7 @@
         <v>16259</v>
       </c>
       <c r="B374" t="n">
-        <v>141415</v>
+        <v>172581</v>
       </c>
       <c r="C374" t="s">
         <v>2591</v>
@@ -38262,7 +38262,7 @@
         <v>16259</v>
       </c>
       <c r="B376" t="n">
-        <v>141416</v>
+        <v>172582</v>
       </c>
       <c r="C376" t="s">
         <v>2603</v>
@@ -38333,7 +38333,7 @@
         <v>16259</v>
       </c>
       <c r="B377" t="n">
-        <v>141417</v>
+        <v>172583</v>
       </c>
       <c r="C377" t="s">
         <v>2608</v>
@@ -38394,7 +38394,7 @@
         <v>16259</v>
       </c>
       <c r="B378" t="n">
-        <v>141418</v>
+        <v>172584</v>
       </c>
       <c r="C378" t="s">
         <v>2615</v>
@@ -38465,7 +38465,7 @@
         <v>16259</v>
       </c>
       <c r="B379" t="n">
-        <v>141419</v>
+        <v>172585</v>
       </c>
       <c r="C379" t="s">
         <v>2621</v>
@@ -38536,7 +38536,7 @@
         <v>16259</v>
       </c>
       <c r="B380" t="n">
-        <v>141420</v>
+        <v>172586</v>
       </c>
       <c r="C380" t="s">
         <v>2626</v>
@@ -38607,7 +38607,7 @@
         <v>16259</v>
       </c>
       <c r="B381" t="n">
-        <v>141363</v>
+        <v>141321</v>
       </c>
       <c r="C381" t="s">
         <v>1869</v>
@@ -38678,7 +38678,7 @@
         <v>16259</v>
       </c>
       <c r="B382" t="n">
-        <v>141421</v>
+        <v>172587</v>
       </c>
       <c r="C382" t="s">
         <v>2637</v>
@@ -38749,7 +38749,7 @@
         <v>16259</v>
       </c>
       <c r="B383" t="n">
-        <v>141422</v>
+        <v>172588</v>
       </c>
       <c r="C383" t="s">
         <v>2642</v>
@@ -38895,7 +38895,7 @@
         <v>16259</v>
       </c>
       <c r="B385" t="n">
-        <v>141423</v>
+        <v>172589</v>
       </c>
       <c r="C385" t="s">
         <v>2656</v>
@@ -39106,7 +39106,7 @@
         <v>16259</v>
       </c>
       <c r="B388" t="n">
-        <v>141424</v>
+        <v>172590</v>
       </c>
       <c r="C388" t="s">
         <v>2678</v>
@@ -39248,7 +39248,7 @@
         <v>16259</v>
       </c>
       <c r="B390" t="n">
-        <v>141425</v>
+        <v>172591</v>
       </c>
       <c r="C390" t="s">
         <v>2691</v>
@@ -39319,7 +39319,7 @@
         <v>16259</v>
       </c>
       <c r="B391" t="n">
-        <v>141426</v>
+        <v>172592</v>
       </c>
       <c r="C391" t="s">
         <v>2697</v>
@@ -39465,7 +39465,7 @@
         <v>16259</v>
       </c>
       <c r="B393" t="n">
-        <v>141427</v>
+        <v>172593</v>
       </c>
       <c r="C393" t="s">
         <v>2712</v>
@@ -39536,7 +39536,7 @@
         <v>16259</v>
       </c>
       <c r="B394" t="n">
-        <v>141428</v>
+        <v>172594</v>
       </c>
       <c r="C394" t="s">
         <v>2718</v>
@@ -39607,7 +39607,7 @@
         <v>16259</v>
       </c>
       <c r="B395" t="n">
-        <v>141429</v>
+        <v>172595</v>
       </c>
       <c r="C395" t="s">
         <v>2724</v>
@@ -39678,7 +39678,7 @@
         <v>16259</v>
       </c>
       <c r="B396" t="n">
-        <v>141430</v>
+        <v>172596</v>
       </c>
       <c r="C396" t="s">
         <v>2730</v>
@@ -39749,7 +39749,7 @@
         <v>16259</v>
       </c>
       <c r="B397" t="n">
-        <v>141431</v>
+        <v>172597</v>
       </c>
       <c r="C397" t="s">
         <v>2737</v>
@@ -39891,7 +39891,7 @@
         <v>16259</v>
       </c>
       <c r="B399" t="n">
-        <v>141432</v>
+        <v>172598</v>
       </c>
       <c r="C399" t="s">
         <v>2748</v>
@@ -39962,7 +39962,7 @@
         <v>16259</v>
       </c>
       <c r="B400" t="n">
-        <v>141433</v>
+        <v>172599</v>
       </c>
       <c r="C400" t="s">
         <v>2755</v>
@@ -40104,7 +40104,7 @@
         <v>16259</v>
       </c>
       <c r="B402" t="n">
-        <v>141434</v>
+        <v>172600</v>
       </c>
       <c r="C402" t="s">
         <v>2767</v>
@@ -40175,7 +40175,7 @@
         <v>16259</v>
       </c>
       <c r="B403" t="n">
-        <v>141435</v>
+        <v>172601</v>
       </c>
       <c r="C403" t="s">
         <v>2773</v>
@@ -40605,7 +40605,7 @@
         <v>16259</v>
       </c>
       <c r="B409" t="n">
-        <v>141436</v>
+        <v>172602</v>
       </c>
       <c r="C409" t="s">
         <v>2814</v>
@@ -40676,7 +40676,7 @@
         <v>16259</v>
       </c>
       <c r="B410" t="n">
-        <v>141437</v>
+        <v>172603</v>
       </c>
       <c r="C410" t="s">
         <v>2819</v>
@@ -40747,7 +40747,7 @@
         <v>16259</v>
       </c>
       <c r="B411" t="n">
-        <v>141438</v>
+        <v>172604</v>
       </c>
       <c r="C411" t="s">
         <v>2825</v>
@@ -40960,7 +40960,7 @@
         <v>16259</v>
       </c>
       <c r="B414" t="n">
-        <v>141439</v>
+        <v>172605</v>
       </c>
       <c r="C414" t="s">
         <v>2844</v>
@@ -41031,7 +41031,7 @@
         <v>16259</v>
       </c>
       <c r="B415" t="n">
-        <v>141440</v>
+        <v>172606</v>
       </c>
       <c r="C415" t="s">
         <v>2850</v>
@@ -41106,7 +41106,7 @@
         <v>16259</v>
       </c>
       <c r="B416" t="n">
-        <v>141441</v>
+        <v>172607</v>
       </c>
       <c r="C416" t="s">
         <v>2858</v>
@@ -41177,7 +41177,7 @@
         <v>16259</v>
       </c>
       <c r="B417" t="n">
-        <v>141442</v>
+        <v>172608</v>
       </c>
       <c r="C417" t="s">
         <v>2863</v>
@@ -41607,7 +41607,7 @@
         <v>16259</v>
       </c>
       <c r="B423" t="n">
-        <v>141443</v>
+        <v>172609</v>
       </c>
       <c r="C423" t="s">
         <v>2902</v>
@@ -41678,7 +41678,7 @@
         <v>16259</v>
       </c>
       <c r="B424" t="n">
-        <v>141444</v>
+        <v>172610</v>
       </c>
       <c r="C424" t="s">
         <v>2909</v>
@@ -41753,7 +41753,7 @@
         <v>16259</v>
       </c>
       <c r="B425" t="n">
-        <v>141445</v>
+        <v>172611</v>
       </c>
       <c r="C425" t="s">
         <v>2916</v>
@@ -41824,7 +41824,7 @@
         <v>16259</v>
       </c>
       <c r="B426" t="n">
-        <v>141446</v>
+        <v>172612</v>
       </c>
       <c r="C426" t="s">
         <v>2923</v>
@@ -41966,7 +41966,7 @@
         <v>16259</v>
       </c>
       <c r="B428" t="n">
-        <v>141447</v>
+        <v>172613</v>
       </c>
       <c r="C428" t="s">
         <v>2934</v>
@@ -42037,7 +42037,7 @@
         <v>16259</v>
       </c>
       <c r="B429" t="n">
-        <v>141448</v>
+        <v>172614</v>
       </c>
       <c r="C429" t="s">
         <v>2941</v>
@@ -42108,7 +42108,7 @@
         <v>16259</v>
       </c>
       <c r="B430" t="n">
-        <v>141449</v>
+        <v>172615</v>
       </c>
       <c r="C430" t="s">
         <v>2946</v>
@@ -42254,7 +42254,7 @@
         <v>16259</v>
       </c>
       <c r="B432" t="n">
-        <v>141450</v>
+        <v>172616</v>
       </c>
       <c r="C432" t="s">
         <v>2961</v>
@@ -42396,7 +42396,7 @@
         <v>16259</v>
       </c>
       <c r="B434" t="n">
-        <v>141451</v>
+        <v>172617</v>
       </c>
       <c r="C434" t="s">
         <v>2976</v>
@@ -42538,7 +42538,7 @@
         <v>16259</v>
       </c>
       <c r="B436" t="n">
-        <v>141452</v>
+        <v>172618</v>
       </c>
       <c r="C436" t="s">
         <v>2987</v>
@@ -42605,7 +42605,7 @@
         <v>16259</v>
       </c>
       <c r="B437" t="n">
-        <v>141453</v>
+        <v>172619</v>
       </c>
       <c r="C437" t="s">
         <v>2993</v>
@@ -42751,7 +42751,7 @@
         <v>16259</v>
       </c>
       <c r="B439" t="n">
-        <v>141454</v>
+        <v>172620</v>
       </c>
       <c r="C439" t="s">
         <v>3006</v>
@@ -42822,7 +42822,7 @@
         <v>16259</v>
       </c>
       <c r="B440" t="n">
-        <v>141455</v>
+        <v>172621</v>
       </c>
       <c r="C440" t="s">
         <v>3010</v>
@@ -42964,7 +42964,7 @@
         <v>16259</v>
       </c>
       <c r="B442" t="n">
-        <v>141456</v>
+        <v>172622</v>
       </c>
       <c r="C442" t="s">
         <v>3021</v>
@@ -43177,7 +43177,7 @@
         <v>16259</v>
       </c>
       <c r="B445" t="n">
-        <v>141457</v>
+        <v>172623</v>
       </c>
       <c r="C445" t="s">
         <v>3040</v>
@@ -43319,7 +43319,7 @@
         <v>16259</v>
       </c>
       <c r="B447" t="n">
-        <v>141458</v>
+        <v>172624</v>
       </c>
       <c r="C447" t="s">
         <v>3052</v>
@@ -43390,7 +43390,7 @@
         <v>16259</v>
       </c>
       <c r="B448" t="n">
-        <v>141459</v>
+        <v>172625</v>
       </c>
       <c r="C448" t="s">
         <v>3058</v>
@@ -43603,7 +43603,7 @@
         <v>16259</v>
       </c>
       <c r="B451" t="n">
-        <v>141460</v>
+        <v>172626</v>
       </c>
       <c r="C451" t="s">
         <v>3078</v>
@@ -43816,7 +43816,7 @@
         <v>16259</v>
       </c>
       <c r="B454" t="n">
-        <v>141461</v>
+        <v>141376</v>
       </c>
       <c r="C454" t="s">
         <v>3096</v>
@@ -44098,7 +44098,7 @@
         <v>16259</v>
       </c>
       <c r="B458" t="n">
-        <v>141462</v>
+        <v>172627</v>
       </c>
       <c r="C458" t="s">
         <v>3123</v>
@@ -44169,7 +44169,7 @@
         <v>16259</v>
       </c>
       <c r="B459" t="n">
-        <v>141463</v>
+        <v>172628</v>
       </c>
       <c r="C459" t="s">
         <v>3129</v>
@@ -44311,7 +44311,7 @@
         <v>16259</v>
       </c>
       <c r="B461" t="n">
-        <v>141288</v>
+        <v>141358</v>
       </c>
       <c r="C461" t="s">
         <v>995</v>
@@ -44453,7 +44453,7 @@
         <v>16259</v>
       </c>
       <c r="B463" t="n">
-        <v>141464</v>
+        <v>172629</v>
       </c>
       <c r="C463" t="s">
         <v>3150</v>
@@ -44524,7 +44524,7 @@
         <v>16259</v>
       </c>
       <c r="B464" t="n">
-        <v>141465</v>
+        <v>172630</v>
       </c>
       <c r="C464" t="s">
         <v>3155</v>
@@ -44670,7 +44670,7 @@
         <v>16259</v>
       </c>
       <c r="B466" t="n">
-        <v>141466</v>
+        <v>172631</v>
       </c>
       <c r="C466" t="s">
         <v>3169</v>
@@ -44741,7 +44741,7 @@
         <v>16259</v>
       </c>
       <c r="B467" t="n">
-        <v>141467</v>
+        <v>172632</v>
       </c>
       <c r="C467" t="s">
         <v>3176</v>
@@ -44816,7 +44816,7 @@
         <v>16259</v>
       </c>
       <c r="B468" t="n">
-        <v>141468</v>
+        <v>172633</v>
       </c>
       <c r="C468" t="s">
         <v>3185</v>
@@ -44966,7 +44966,7 @@
         <v>16259</v>
       </c>
       <c r="B470" t="n">
-        <v>141469</v>
+        <v>172634</v>
       </c>
       <c r="C470" t="s">
         <v>3199</v>
@@ -45116,7 +45116,7 @@
         <v>16259</v>
       </c>
       <c r="B472" t="n">
-        <v>141470</v>
+        <v>172635</v>
       </c>
       <c r="C472" t="s">
         <v>3215</v>
@@ -45258,7 +45258,7 @@
         <v>16259</v>
       </c>
       <c r="B474" t="n">
-        <v>141471</v>
+        <v>172636</v>
       </c>
       <c r="C474" t="s">
         <v>3226</v>
@@ -45329,7 +45329,7 @@
         <v>16259</v>
       </c>
       <c r="B475" t="n">
-        <v>141472</v>
+        <v>172637</v>
       </c>
       <c r="C475" t="s">
         <v>3232</v>
@@ -45461,7 +45461,7 @@
         <v>16259</v>
       </c>
       <c r="B477" t="n">
-        <v>141473</v>
+        <v>172638</v>
       </c>
       <c r="C477" t="s">
         <v>3246</v>
@@ -45603,7 +45603,7 @@
         <v>16259</v>
       </c>
       <c r="B479" t="n">
-        <v>141474</v>
+        <v>172639</v>
       </c>
       <c r="C479" t="s">
         <v>3257</v>
@@ -45674,7 +45674,7 @@
         <v>16259</v>
       </c>
       <c r="B480" t="n">
-        <v>141475</v>
+        <v>172640</v>
       </c>
       <c r="C480" t="s">
         <v>3265</v>
@@ -45745,7 +45745,7 @@
         <v>16259</v>
       </c>
       <c r="B481" t="n">
-        <v>141476</v>
+        <v>172641</v>
       </c>
       <c r="C481" t="s">
         <v>3273</v>
@@ -45816,7 +45816,7 @@
         <v>16259</v>
       </c>
       <c r="B482" t="n">
-        <v>141477</v>
+        <v>172642</v>
       </c>
       <c r="C482" t="s">
         <v>3279</v>
@@ -45887,7 +45887,7 @@
         <v>16259</v>
       </c>
       <c r="B483" t="n">
-        <v>141478</v>
+        <v>172643</v>
       </c>
       <c r="C483" t="s">
         <v>3285</v>
@@ -46029,7 +46029,7 @@
         <v>16259</v>
       </c>
       <c r="B485" t="n">
-        <v>141479</v>
+        <v>172644</v>
       </c>
       <c r="C485" t="s">
         <v>3299</v>
@@ -46100,7 +46100,7 @@
         <v>16259</v>
       </c>
       <c r="B486" t="n">
-        <v>141480</v>
+        <v>172645</v>
       </c>
       <c r="C486" t="s">
         <v>3306</v>
@@ -46171,7 +46171,7 @@
         <v>16259</v>
       </c>
       <c r="B487" t="n">
-        <v>141481</v>
+        <v>172646</v>
       </c>
       <c r="C487" t="s">
         <v>3314</v>
@@ -46242,7 +46242,7 @@
         <v>16259</v>
       </c>
       <c r="B488" t="n">
-        <v>141482</v>
+        <v>172647</v>
       </c>
       <c r="C488" t="s">
         <v>3321</v>
@@ -46313,7 +46313,7 @@
         <v>16259</v>
       </c>
       <c r="B489" t="n">
-        <v>141483</v>
+        <v>172648</v>
       </c>
       <c r="C489" t="s">
         <v>3328</v>
@@ -46384,7 +46384,7 @@
         <v>16259</v>
       </c>
       <c r="B490" t="n">
-        <v>141484</v>
+        <v>172649</v>
       </c>
       <c r="C490" t="s">
         <v>3334</v>
@@ -46455,7 +46455,7 @@
         <v>16259</v>
       </c>
       <c r="B491" t="n">
-        <v>141485</v>
+        <v>172650</v>
       </c>
       <c r="C491" t="s">
         <v>3342</v>
@@ -46530,7 +46530,7 @@
         <v>16259</v>
       </c>
       <c r="B492" t="n">
-        <v>141486</v>
+        <v>172651</v>
       </c>
       <c r="C492" t="s">
         <v>3352</v>
@@ -46601,7 +46601,7 @@
         <v>16259</v>
       </c>
       <c r="B493" t="n">
-        <v>141487</v>
+        <v>172652</v>
       </c>
       <c r="C493" t="s">
         <v>3359</v>
@@ -46672,7 +46672,7 @@
         <v>16259</v>
       </c>
       <c r="B494" t="n">
-        <v>141488</v>
+        <v>172653</v>
       </c>
       <c r="C494" t="s">
         <v>3366</v>
@@ -46822,7 +46822,7 @@
         <v>16259</v>
       </c>
       <c r="B496" t="n">
-        <v>141489</v>
+        <v>172654</v>
       </c>
       <c r="C496" t="s">
         <v>3385</v>
@@ -46893,7 +46893,7 @@
         <v>16259</v>
       </c>
       <c r="B497" t="n">
-        <v>141490</v>
+        <v>172655</v>
       </c>
       <c r="C497" t="s">
         <v>3392</v>
@@ -46960,7 +46960,7 @@
         <v>16259</v>
       </c>
       <c r="B498" t="n">
-        <v>141491</v>
+        <v>172656</v>
       </c>
       <c r="C498" t="s">
         <v>3401</v>
@@ -47035,7 +47035,7 @@
         <v>16259</v>
       </c>
       <c r="B499" t="n">
-        <v>141492</v>
+        <v>172657</v>
       </c>
       <c r="C499" t="s">
         <v>3408</v>
@@ -47110,7 +47110,7 @@
         <v>16259</v>
       </c>
       <c r="B500" t="n">
-        <v>141493</v>
+        <v>172658</v>
       </c>
       <c r="C500" t="s">
         <v>3417</v>
@@ -47252,7 +47252,7 @@
         <v>16259</v>
       </c>
       <c r="B502" t="n">
-        <v>141494</v>
+        <v>172659</v>
       </c>
       <c r="C502" t="s">
         <v>3434</v>
@@ -47327,7 +47327,7 @@
         <v>16259</v>
       </c>
       <c r="B503" t="n">
-        <v>141495</v>
+        <v>172660</v>
       </c>
       <c r="C503" t="s">
         <v>3441</v>
@@ -47402,7 +47402,7 @@
         <v>16259</v>
       </c>
       <c r="B504" t="n">
-        <v>141496</v>
+        <v>172661</v>
       </c>
       <c r="C504" t="s">
         <v>3451</v>
@@ -47477,7 +47477,7 @@
         <v>16259</v>
       </c>
       <c r="B505" t="n">
-        <v>141497</v>
+        <v>172662</v>
       </c>
       <c r="C505" t="s">
         <v>3457</v>
@@ -47552,7 +47552,7 @@
         <v>16259</v>
       </c>
       <c r="B506" t="n">
-        <v>141498</v>
+        <v>172663</v>
       </c>
       <c r="C506" t="s">
         <v>3464</v>
@@ -47852,7 +47852,7 @@
         <v>16259</v>
       </c>
       <c r="B510" t="n">
-        <v>141499</v>
+        <v>172664</v>
       </c>
       <c r="C510" t="s">
         <v>3500</v>
@@ -47923,7 +47923,7 @@
         <v>16259</v>
       </c>
       <c r="B511" t="n">
-        <v>141500</v>
+        <v>172665</v>
       </c>
       <c r="C511" t="s">
         <v>3509</v>
@@ -48067,7 +48067,7 @@
         <v>16259</v>
       </c>
       <c r="B513" t="n">
-        <v>141501</v>
+        <v>172666</v>
       </c>
       <c r="C513" t="s">
         <v>3529</v>
@@ -48142,7 +48142,7 @@
         <v>16259</v>
       </c>
       <c r="B514" t="n">
-        <v>141502</v>
+        <v>172667</v>
       </c>
       <c r="C514" t="s">
         <v>3538</v>
@@ -48292,7 +48292,7 @@
         <v>16259</v>
       </c>
       <c r="B516" t="n">
-        <v>141503</v>
+        <v>172668</v>
       </c>
       <c r="C516" t="s">
         <v>3558</v>
@@ -48363,7 +48363,7 @@
         <v>16259</v>
       </c>
       <c r="B517" t="n">
-        <v>141504</v>
+        <v>172669</v>
       </c>
       <c r="C517" t="s">
         <v>3565</v>
@@ -48438,7 +48438,7 @@
         <v>16259</v>
       </c>
       <c r="B518" t="n">
-        <v>141505</v>
+        <v>172670</v>
       </c>
       <c r="C518" t="s">
         <v>3573</v>
@@ -48511,7 +48511,7 @@
         <v>16259</v>
       </c>
       <c r="B519" t="n">
-        <v>141506</v>
+        <v>172671</v>
       </c>
       <c r="C519" t="s">
         <v>3583</v>
@@ -48584,7 +48584,7 @@
         <v>16259</v>
       </c>
       <c r="B520" t="n">
-        <v>141507</v>
+        <v>172672</v>
       </c>
       <c r="C520" t="s">
         <v>3589</v>
@@ -48726,7 +48726,7 @@
         <v>16259</v>
       </c>
       <c r="B522" t="n">
-        <v>141508</v>
+        <v>172673</v>
       </c>
       <c r="C522" t="s">
         <v>3606</v>
@@ -48797,7 +48797,7 @@
         <v>16259</v>
       </c>
       <c r="B523" t="n">
-        <v>141509</v>
+        <v>172674</v>
       </c>
       <c r="C523" t="s">
         <v>3616</v>
@@ -48868,7 +48868,7 @@
         <v>16259</v>
       </c>
       <c r="B524" t="n">
-        <v>141510</v>
+        <v>172675</v>
       </c>
       <c r="C524" t="s">
         <v>3625</v>
@@ -49000,7 +49000,7 @@
         <v>16259</v>
       </c>
       <c r="B526" t="n">
-        <v>141511</v>
+        <v>172676</v>
       </c>
       <c r="C526" t="s">
         <v>3638</v>
@@ -49067,7 +49067,7 @@
         <v>16259</v>
       </c>
       <c r="B527" t="n">
-        <v>141512</v>
+        <v>172677</v>
       </c>
       <c r="C527" t="s">
         <v>3644</v>
@@ -49138,7 +49138,7 @@
         <v>16259</v>
       </c>
       <c r="B528" t="n">
-        <v>141513</v>
+        <v>172678</v>
       </c>
       <c r="C528" t="s">
         <v>3652</v>
@@ -49205,7 +49205,7 @@
         <v>16259</v>
       </c>
       <c r="B529" t="n">
-        <v>141514</v>
+        <v>172679</v>
       </c>
       <c r="C529" t="s">
         <v>3658</v>
@@ -49276,7 +49276,7 @@
         <v>16259</v>
       </c>
       <c r="B530" t="n">
-        <v>141460</v>
+        <v>141376</v>
       </c>
       <c r="C530" t="s">
         <v>3096</v>
@@ -49347,7 +49347,7 @@
         <v>16259</v>
       </c>
       <c r="B531" t="n">
-        <v>141515</v>
+        <v>172680</v>
       </c>
       <c r="C531" t="s">
         <v>3672</v>
@@ -49408,7 +49408,7 @@
         <v>16259</v>
       </c>
       <c r="B532" t="n">
-        <v>141516</v>
+        <v>172681</v>
       </c>
       <c r="C532" t="s">
         <v>3680</v>
@@ -49479,7 +49479,7 @@
         <v>16259</v>
       </c>
       <c r="B533" t="n">
-        <v>141517</v>
+        <v>172682</v>
       </c>
       <c r="C533" t="s">
         <v>3687</v>
@@ -49550,7 +49550,7 @@
         <v>16259</v>
       </c>
       <c r="B534" t="n">
-        <v>141518</v>
+        <v>172683</v>
       </c>
       <c r="C534" t="s">
         <v>3695</v>
@@ -49621,7 +49621,7 @@
         <v>16259</v>
       </c>
       <c r="B535" t="n">
-        <v>141519</v>
+        <v>172684</v>
       </c>
       <c r="C535" t="s">
         <v>3701</v>
@@ -49682,7 +49682,7 @@
         <v>16259</v>
       </c>
       <c r="B536" t="n">
-        <v>141520</v>
+        <v>172685</v>
       </c>
       <c r="C536" t="s">
         <v>3708</v>
@@ -49753,7 +49753,7 @@
         <v>16259</v>
       </c>
       <c r="B537" t="n">
-        <v>141521</v>
+        <v>172686</v>
       </c>
       <c r="C537" t="s">
         <v>3716</v>
@@ -49885,7 +49885,7 @@
         <v>16259</v>
       </c>
       <c r="B539" t="n">
-        <v>141522</v>
+        <v>172687</v>
       </c>
       <c r="C539" t="s">
         <v>3730</v>
@@ -49956,7 +49956,7 @@
         <v>16259</v>
       </c>
       <c r="B540" t="n">
-        <v>141523</v>
+        <v>172688</v>
       </c>
       <c r="C540" t="s">
         <v>3738</v>
@@ -50027,7 +50027,7 @@
         <v>16259</v>
       </c>
       <c r="B541" t="n">
-        <v>141524</v>
+        <v>172689</v>
       </c>
       <c r="C541" t="s">
         <v>3745</v>
@@ -50098,7 +50098,7 @@
         <v>16259</v>
       </c>
       <c r="B542" t="n">
-        <v>141525</v>
+        <v>172690</v>
       </c>
       <c r="C542" t="s">
         <v>3752</v>
@@ -50155,7 +50155,7 @@
         <v>16259</v>
       </c>
       <c r="B543" t="n">
-        <v>141526</v>
+        <v>172691</v>
       </c>
       <c r="C543" t="s">
         <v>3758</v>
@@ -50212,7 +50212,7 @@
         <v>16259</v>
       </c>
       <c r="B544" t="n">
-        <v>141527</v>
+        <v>172692</v>
       </c>
       <c r="C544" t="s">
         <v>3764</v>
